--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaorozco\a\Automation_BetterwarePlus\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\IdeaProjects\automationbetterwareplus2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D329D15E-1D8A-430E-83F7-108D9F65A5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC40EF0-849C-42BA-A4CA-6F96CAB3917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDataQA" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,11 @@
     <sheet name="Query" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>username</t>
   </si>
@@ -543,6 +530,12 @@
     where B.CatalogId = 41 AND B.NewProduct = 1 
 	AND  B.OfferTypeId IS NULL
 	ORDER BY  A.Code ASC </t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Password123</t>
   </si>
 </sst>
 </file>
@@ -1133,13 +1126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,12 +1138,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1168,9 +1159,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>119</v>
       </c>
@@ -1204,13 +1195,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -1238,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -1247,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
@@ -1259,7 +1250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>64</v>
       </c>
@@ -1268,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -1277,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -1286,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
@@ -1304,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
@@ -1322,7 +1313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
@@ -1340,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1358,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>69</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>70</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
@@ -1421,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -1430,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
@@ -1439,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -1448,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
@@ -1457,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
@@ -1484,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -1511,7 +1502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>75</v>
       </c>
@@ -1529,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>76</v>
       </c>
@@ -1538,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>64</v>
       </c>
@@ -1574,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>65</v>
       </c>
@@ -1583,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>66</v>
       </c>
@@ -1592,7 +1583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>77</v>
       </c>
@@ -1601,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>78</v>
       </c>
@@ -1610,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1619,7 +1610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>80</v>
       </c>
@@ -1628,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>81</v>
       </c>
@@ -1637,7 +1628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>82</v>
       </c>
@@ -1646,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>83</v>
       </c>
@@ -1655,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>84</v>
       </c>
@@ -1664,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>85</v>
       </c>
@@ -1673,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>34</v>
       </c>
@@ -1691,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>33</v>
       </c>
@@ -1700,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>86</v>
       </c>
@@ -1709,7 +1700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>35</v>
       </c>
@@ -1718,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>71</v>
       </c>
@@ -1745,7 +1736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>87</v>
       </c>
@@ -1754,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>38</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>72</v>
       </c>
@@ -1772,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>56</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>88</v>
       </c>
@@ -1790,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>73</v>
       </c>
@@ -1808,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>89</v>
       </c>
@@ -1817,7 +1808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>90</v>
       </c>
@@ -1826,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>57</v>
       </c>
@@ -1835,7 +1826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>91</v>
       </c>
@@ -1853,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>52</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>53</v>
       </c>
@@ -1871,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>92</v>
       </c>
@@ -1880,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>13</v>
       </c>
@@ -1889,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -1898,7 +1889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>60</v>
       </c>
@@ -1907,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>93</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>94</v>
       </c>
@@ -1943,7 +1934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>43</v>
       </c>
@@ -1952,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>42</v>
       </c>
@@ -1961,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>41</v>
       </c>
@@ -1970,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>95</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>96</v>
       </c>
@@ -1988,7 +1979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>97</v>
       </c>
@@ -2006,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>98</v>
       </c>
@@ -2024,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>99</v>
       </c>
@@ -2033,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>100</v>
       </c>
@@ -2042,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>101</v>
       </c>
@@ -2051,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>102</v>
       </c>
@@ -2060,7 +2051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>103</v>
       </c>
@@ -2069,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>104</v>
       </c>
@@ -2078,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>105</v>
       </c>
@@ -2096,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>47</v>
       </c>
@@ -2105,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>106</v>
       </c>
@@ -2114,7 +2105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>48</v>
       </c>
@@ -2123,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>50</v>
       </c>
@@ -2132,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>107</v>
       </c>
@@ -2150,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>44</v>
       </c>
@@ -2159,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>108</v>
       </c>
@@ -2168,7 +2159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>45</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>39</v>
       </c>
@@ -2195,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>109</v>
       </c>
@@ -2204,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>59</v>
       </c>
@@ -2213,24 +2204,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>113</v>
       </c>
@@ -2262,348 +2253,348 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="16"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
     </row>
   </sheetData>
@@ -2623,12 +2614,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -2644,7 +2635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
@@ -2662,21 +2653,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A425FA84-9C4B-4645-9FDA-A74C708B8BDB}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="44.1796875" customWidth="1"/>
-    <col min="4" max="4" width="64.26953125" customWidth="1"/>
-    <col min="5" max="5" width="45.08984375" customWidth="1"/>
-    <col min="6" max="6" width="39.36328125" customWidth="1"/>
-    <col min="7" max="7" width="47.36328125" customWidth="1"/>
-    <col min="9" max="9" width="58.26953125" customWidth="1"/>
+    <col min="1" max="3" width="44.21875" customWidth="1"/>
+    <col min="4" max="4" width="64.21875" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+    <col min="9" max="9" width="58.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>123</v>
       </c>
@@ -2699,7 +2690,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
@@ -2725,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -2736,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>131</v>
       </c>
